--- a/Lab2/FFT_Library_test.xlsx
+++ b/Lab2/FFT_Library_test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\purplecobras\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C306B78D-D152-4149-921F-BFC886C91D08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04532FD3-DE11-4F97-B6FC-B8F001740D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6555" xr2:uid="{BD16393A-19D7-44E7-BF4E-47CC3A678109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>660Hz input</t>
+  </si>
+  <si>
+    <t>Signal Generator Input</t>
+  </si>
+  <si>
+    <t>Peak in bin 5-6 which is</t>
+  </si>
+  <si>
+    <t>correct for 660 Hz</t>
+  </si>
+  <si>
+    <t>1000 Hz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,7 +1200,2239 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4056</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4836</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5616</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6396</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7332</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7644</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8268</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8424</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8580</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8736</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8892</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9516</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9672</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9828</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10140</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10608</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10764</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11076</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11232</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11388</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11544</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12012</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12324</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12480</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12636</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12792</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12948</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13260</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13416</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13728</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13884</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14040</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14196</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14508</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14820</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14976</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15132</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15288</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15444</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15756</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15912</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16068</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16224</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16380</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16692</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16848</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17160</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17316</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17472</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17628</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17784</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17940</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18096</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18252</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18408</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18564</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18720</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18876</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19032</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19188</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19344</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19656</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19812</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A26F-4CF5-9088-E60117F008EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="295717960"/>
+        <c:axId val="295712712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="295717960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295712712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="295712712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295717960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4056</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4836</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5616</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6240</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6396</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7332</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7488</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7644</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8268</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8424</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8580</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8736</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8892</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9516</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9672</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9828</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10140</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10296</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10452</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10608</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10764</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11076</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11232</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11388</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11544</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12012</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12324</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12480</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12636</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12792</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12948</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13260</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13416</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13728</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13884</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14040</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14196</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14508</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14664</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14820</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14976</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15132</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15288</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15444</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15756</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15912</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16068</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16224</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16380</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16692</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16848</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17160</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17316</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17472</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17628</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17784</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17940</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18096</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18252</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18408</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18564</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18720</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18876</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19032</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19188</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19344</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19656</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19812</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B813-438F-BEFD-A28EFB53D55B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453429448"/>
+        <c:axId val="453435024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453429448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453435024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="453435024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453429448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1738,6 +3988,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1759,6 +5041,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56BC70E-E05A-4270-901D-B30901CC5840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7FEE2D-26F5-4905-AD6A-0DEE5E81C857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183356</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C21BC6-29F8-4CF8-B406-D57CB43B6C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,15 +5440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584699BE-BCDE-42A5-8D07-F0C53AC3BE6F}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>223</v>
       </c>
@@ -2092,7 +5456,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>207</v>
       </c>
@@ -2100,7 +5464,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>74</v>
       </c>
@@ -2108,15 +5472,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>56</v>
       </c>
       <c r="B4">
         <v>680</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>47</v>
       </c>
@@ -2124,7 +5491,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>45</v>
       </c>
@@ -2132,7 +5499,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>41</v>
       </c>
@@ -2140,7 +5507,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>41</v>
       </c>
@@ -2148,7 +5515,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>37</v>
       </c>
@@ -2156,7 +5523,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>37</v>
       </c>
@@ -2164,7 +5531,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>44</v>
       </c>
@@ -2172,7 +5539,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>57</v>
       </c>
@@ -2180,7 +5547,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2188,7 +5555,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>130</v>
       </c>
@@ -2196,7 +5563,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>125</v>
       </c>
@@ -2204,7 +5571,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>73</v>
       </c>
@@ -3106,6 +6473,2098 @@
       </c>
       <c r="B128">
         <v>21760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6D87BF-FB84-4795-9DBF-F0958AF5294F}">
+  <dimension ref="A1:D128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>124</v>
+      </c>
+      <c r="B1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>780</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>936</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>10764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>11232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>11388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>11544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <v>11856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>12168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>12636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>12792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>13572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>13728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>13884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>14352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>14508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>14664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>15132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>15444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>15756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>15912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>16068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>19</v>
+      </c>
+      <c r="B104">
+        <v>16224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>16380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>16536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>16848</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>24</v>
+      </c>
+      <c r="B109">
+        <v>17004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>17316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>17472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>17628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>17784</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>18096</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>18252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>18408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>18564</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>18876</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122">
+        <v>19032</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>27</v>
+      </c>
+      <c r="B123">
+        <v>19188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>19344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>19656</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>19812</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>19968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF98A25-FF67-427B-8F2A-91A85D4003D1}">
+  <dimension ref="A1:C128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>126</v>
+      </c>
+      <c r="B1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>10452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>10764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>11232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>11388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74">
+        <v>11544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>11856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>12168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>12636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>12792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>19</v>
+      </c>
+      <c r="B83">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <v>13416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>13572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>13728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>13884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>14352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>14508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>14664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>15132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>15444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>15756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>15912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>27</v>
+      </c>
+      <c r="B103">
+        <v>16068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>16224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>16380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>16536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>16848</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>17004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>17316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>17472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>17628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114">
+        <v>17784</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>18096</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>18252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>18408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>18564</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>18876</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>19032</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>19188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>27</v>
+      </c>
+      <c r="B124">
+        <v>19344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>19656</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>19812</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>19968</v>
       </c>
     </row>
   </sheetData>
